--- a/biology/Zoologie/Jamberoo/Jamberoo.xlsx
+++ b/biology/Zoologie/Jamberoo/Jamberoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jamberoo est un genre d'araignées aranéomorphes de la famille des Stiphidiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamberoo est un genre d'araignées aranéomorphes de la famille des Stiphidiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1]. Elles se rencontrent en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne et au Victoria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie. Elles se rencontrent en Nouvelle-Galles du Sud, dans le Territoire de la capitale australienne et au Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.0, 11/05/2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.0, 11/05/2016) :
 Jamberoo actensis Gray &amp; Smith, 2008
 Jamberoo australis Gray &amp; Smith, 2008
 Jamberoo boydensis Gray &amp; Smith, 2008
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray &amp; Smith, 2008 : A new subfamily of spiders with grate-shaped tapeta from Australia and Papua New Guinea (Araneae: Stiphidiidae: Borralinae). Records of the Australian Museum, vol. 60, p. 13-44 (texte intégral).</t>
         </is>
